--- a/Books.xlsx
+++ b/Books.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382C193C-A507-47A4-9871-432AEA9EE831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7684C54-27EC-174A-A5D3-BB6C02C8F690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28890" yWindow="765" windowWidth="21465" windowHeight="19635" xr2:uid="{A0664155-D690-415F-9C7C-7FB141AD10A9}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20460" xr2:uid="{A0664155-D690-415F-9C7C-7FB141AD10A9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Main" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="121">
   <si>
     <t>Title</t>
   </si>
@@ -102,6 +102,303 @@
   </si>
   <si>
     <t>Harold Abelson, Gerald Jay Sussman, Julie Sussman</t>
+  </si>
+  <si>
+    <t>Market Wizards</t>
+  </si>
+  <si>
+    <t>The Annotated Turing</t>
+  </si>
+  <si>
+    <t>Turing's Vision</t>
+  </si>
+  <si>
+    <t>Chris Bernhardt</t>
+  </si>
+  <si>
+    <t>Alan Turing: The Enigma</t>
+  </si>
+  <si>
+    <t>Andrew Hodges</t>
+  </si>
+  <si>
+    <t>The Black Swan</t>
+  </si>
+  <si>
+    <t>Nassim Nicholas Taleb</t>
+  </si>
+  <si>
+    <t>Against the Gods</t>
+  </si>
+  <si>
+    <t>Peter L Bernstein</t>
+  </si>
+  <si>
+    <t>The Hard Thing About Hard Things</t>
+  </si>
+  <si>
+    <t>Ben Horowitz</t>
+  </si>
+  <si>
+    <t>The Code Breaker: Jennifer Doudna, Gene Editing, and the Future of the Human Race</t>
+  </si>
+  <si>
+    <t>Walter Isaacson</t>
+  </si>
+  <si>
+    <t>Shoe Dog</t>
+  </si>
+  <si>
+    <t>Phil Knight</t>
+  </si>
+  <si>
+    <t>Man's Search for Meaning</t>
+  </si>
+  <si>
+    <t>Viktor Frankel</t>
+  </si>
+  <si>
+    <t>Peter Thiel</t>
+  </si>
+  <si>
+    <t>Zero to One</t>
+  </si>
+  <si>
+    <t>Patrick Lencioni</t>
+  </si>
+  <si>
+    <t>The Five Dysfunctions of a Team</t>
+  </si>
+  <si>
+    <t>Who Moved My Cheese?</t>
+  </si>
+  <si>
+    <t>Spencer Johnson</t>
+  </si>
+  <si>
+    <t>Jocko Willink</t>
+  </si>
+  <si>
+    <t>Extreme Ownership</t>
+  </si>
+  <si>
+    <t>Bad Blood</t>
+  </si>
+  <si>
+    <t>John Carreyrou</t>
+  </si>
+  <si>
+    <t>Daniel Kahneman</t>
+  </si>
+  <si>
+    <t>Thinking, Fast and Slow</t>
+  </si>
+  <si>
+    <t>Say Nothing</t>
+  </si>
+  <si>
+    <t>Patrick Keefe</t>
+  </si>
+  <si>
+    <t>Michael Lewis</t>
+  </si>
+  <si>
+    <t>Liar's Poker</t>
+  </si>
+  <si>
+    <t>Business Adventures</t>
+  </si>
+  <si>
+    <t>John Brooks</t>
+  </si>
+  <si>
+    <t>Alice Schroeder</t>
+  </si>
+  <si>
+    <t>Snowball</t>
+  </si>
+  <si>
+    <t>Duncan Clark</t>
+  </si>
+  <si>
+    <t>Alibaba</t>
+  </si>
+  <si>
+    <t>Fooled By Randomness</t>
+  </si>
+  <si>
+    <t>When Genius Failed</t>
+  </si>
+  <si>
+    <t>Roger Lowenstein</t>
+  </si>
+  <si>
+    <t>Gregory Zuckerman</t>
+  </si>
+  <si>
+    <t>The Man Who Solved the Market</t>
+  </si>
+  <si>
+    <t>Jack Schwager</t>
+  </si>
+  <si>
+    <t>Flash Boys</t>
+  </si>
+  <si>
+    <t>Andrew Ross Sorkin</t>
+  </si>
+  <si>
+    <t>Too Big to Fail</t>
+  </si>
+  <si>
+    <t>Barbarians at the Gate</t>
+  </si>
+  <si>
+    <t>Bryan Burrough</t>
+  </si>
+  <si>
+    <t>Sheelah Kolhatkar</t>
+  </si>
+  <si>
+    <t>Black Edge</t>
+  </si>
+  <si>
+    <t>Nick Bolton</t>
+  </si>
+  <si>
+    <t>American Kingpin</t>
+  </si>
+  <si>
+    <t>Edward Thorp</t>
+  </si>
+  <si>
+    <t>A Man for All Markets</t>
+  </si>
+  <si>
+    <t>Turney Duff</t>
+  </si>
+  <si>
+    <t>The Buyside</t>
+  </si>
+  <si>
+    <t>Ronan Farrow</t>
+  </si>
+  <si>
+    <t>Catch and Kill</t>
+  </si>
+  <si>
+    <t>Bill Browder</t>
+  </si>
+  <si>
+    <t>Red Notice</t>
+  </si>
+  <si>
+    <t>The Phoenix Project</t>
+  </si>
+  <si>
+    <t>Gene Kim</t>
+  </si>
+  <si>
+    <t>Godel, Escher, Bach</t>
+  </si>
+  <si>
+    <t>Douglas Hofstadter</t>
+  </si>
+  <si>
+    <t>A Brief History of Time</t>
+  </si>
+  <si>
+    <t>Stephen Hawking</t>
+  </si>
+  <si>
+    <t>Steve Jobs</t>
+  </si>
+  <si>
+    <t>Nick Bostrom</t>
+  </si>
+  <si>
+    <t>Superintelligence</t>
+  </si>
+  <si>
+    <t>Fermat's Enigma</t>
+  </si>
+  <si>
+    <t>Simon Singh</t>
+  </si>
+  <si>
+    <t>Douglas Adams</t>
+  </si>
+  <si>
+    <t>The Hitchhiker's Guide to the Galaxy</t>
+  </si>
+  <si>
+    <t>JD Salinger</t>
+  </si>
+  <si>
+    <t>The Catcher in the Rye</t>
+  </si>
+  <si>
+    <t>George Orwell</t>
+  </si>
+  <si>
+    <t>Animal Farm</t>
+  </si>
+  <si>
+    <t>John Steinbeck</t>
+  </si>
+  <si>
+    <t>Of Mice and Men</t>
+  </si>
+  <si>
+    <t>Ernest Cline</t>
+  </si>
+  <si>
+    <t>Ready Player One</t>
+  </si>
+  <si>
+    <t>1984'</t>
+  </si>
+  <si>
+    <t>Franz Kafka</t>
+  </si>
+  <si>
+    <t>The Metamorphosis</t>
+  </si>
+  <si>
+    <t>Albert Camus</t>
+  </si>
+  <si>
+    <t>The Stranger</t>
+  </si>
+  <si>
+    <t>Frank Herbert</t>
+  </si>
+  <si>
+    <t>Dune</t>
+  </si>
+  <si>
+    <t>Isaac Asimov</t>
+  </si>
+  <si>
+    <t>Foundation</t>
+  </si>
+  <si>
+    <t>Brave New World</t>
+  </si>
+  <si>
+    <t>Aldous Huxley</t>
+  </si>
+  <si>
+    <t>William Gibson</t>
+  </si>
+  <si>
+    <t>Neuromancer</t>
+  </si>
+  <si>
+    <t>Neal Stephenson</t>
+  </si>
+  <si>
+    <t>Snow Crash</t>
   </si>
 </sst>
 </file>
@@ -480,27 +777,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1089CEBF-F5BD-4355-931E-A6865796C16D}">
-  <dimension ref="B2:I8"/>
+  <dimension ref="B2:I60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="56.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="1"/>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="1"/>
+    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" style="1"/>
+    <col min="7" max="7" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
@@ -526,7 +823,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C3" t="s">
         <v>5</v>
       </c>
@@ -546,7 +843,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B4" s="1">
         <v>1</v>
       </c>
@@ -572,7 +869,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B5" s="1">
         <v>2</v>
       </c>
@@ -595,7 +892,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B6" s="1">
         <v>3</v>
       </c>
@@ -621,7 +918,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B7" s="1">
         <v>4</v>
       </c>
@@ -632,12 +929,464 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B8" s="1">
+        <v>5</v>
+      </c>
       <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B9" s="1">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B10" s="1">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B11" s="1">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B12" s="1">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B13" s="1">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B14" s="1">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B15" s="1">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B16" s="1">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B17" s="1">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
         <v>21</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D17" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B18" s="1">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B19" s="1">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C26" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C27" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C28" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C30" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C31" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C32" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C33" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C34" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C36" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C37" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C38" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C39" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C40" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C41" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C42" t="s">
+        <v>50</v>
+      </c>
+      <c r="D42" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C43" t="s">
+        <v>53</v>
+      </c>
+      <c r="D43" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C44" t="s">
+        <v>54</v>
+      </c>
+      <c r="D44" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C45" t="s">
+        <v>88</v>
+      </c>
+      <c r="D45" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C46" t="s">
+        <v>90</v>
+      </c>
+      <c r="D46" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C47" t="s">
+        <v>35</v>
+      </c>
+      <c r="D47" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C48" t="s">
+        <v>95</v>
+      </c>
+      <c r="D48" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C49" t="s">
+        <v>98</v>
+      </c>
+      <c r="D49" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C50" t="s">
+        <v>100</v>
+      </c>
+      <c r="D50" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C51" t="s">
+        <v>102</v>
+      </c>
+      <c r="D51" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="52" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C52" t="s">
+        <v>104</v>
+      </c>
+      <c r="D52" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="53" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C53" t="s">
+        <v>100</v>
+      </c>
+      <c r="D53" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="54" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C54" t="s">
+        <v>107</v>
+      </c>
+      <c r="D54" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="55" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C55" t="s">
+        <v>109</v>
+      </c>
+      <c r="D55" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="56" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C56" t="s">
+        <v>111</v>
+      </c>
+      <c r="D56" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="57" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C57" t="s">
+        <v>113</v>
+      </c>
+      <c r="D57" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="58" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C58" t="s">
+        <v>116</v>
+      </c>
+      <c r="D58" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C59" t="s">
+        <v>117</v>
+      </c>
+      <c r="D59" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="60" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C60" t="s">
+        <v>119</v>
+      </c>
+      <c r="D60" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/Books.xlsx
+++ b/Books.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7684C54-27EC-174A-A5D3-BB6C02C8F690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12CD2A9-008C-4CDB-B2BA-E59C54F5004E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20460" xr2:uid="{A0664155-D690-415F-9C7C-7FB141AD10A9}"/>
+    <workbookView xWindow="-31470" yWindow="675" windowWidth="29145" windowHeight="18300" xr2:uid="{A0664155-D690-415F-9C7C-7FB141AD10A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -783,21 +783,21 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="1"/>
-    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="56.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1640625" style="1"/>
-    <col min="7" max="7" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="56.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
@@ -823,7 +823,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>5</v>
       </c>
@@ -843,7 +843,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
         <v>1</v>
       </c>
@@ -869,7 +869,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
         <v>2</v>
       </c>
@@ -892,7 +892,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
         <v>3</v>
       </c>
@@ -918,7 +918,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
         <v>4</v>
       </c>
@@ -929,7 +929,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B8" s="1">
         <v>5</v>
       </c>
@@ -940,7 +940,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B9" s="1">
         <v>6</v>
       </c>
@@ -951,7 +951,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B10" s="1">
         <v>7</v>
       </c>
@@ -962,7 +962,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B11" s="1">
         <v>8</v>
       </c>
@@ -973,7 +973,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B12" s="1">
         <v>9</v>
       </c>
@@ -984,7 +984,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B13" s="1">
         <v>10</v>
       </c>
@@ -995,7 +995,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B14" s="1">
         <v>11</v>
       </c>
@@ -1006,7 +1006,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B15" s="1">
         <v>12</v>
       </c>
@@ -1017,7 +1017,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B16" s="1">
         <v>13</v>
       </c>
@@ -1028,7 +1028,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" s="1">
         <v>14</v>
       </c>
@@ -1039,7 +1039,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" s="1">
         <v>15</v>
       </c>
@@ -1050,7 +1050,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19" s="1">
         <v>16</v>
       </c>
@@ -1061,7 +1061,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
         <v>29</v>
       </c>
@@ -1069,7 +1069,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
         <v>31</v>
       </c>
@@ -1077,7 +1077,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
         <v>33</v>
       </c>
@@ -1085,7 +1085,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
         <v>35</v>
       </c>
@@ -1093,7 +1093,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
         <v>42</v>
       </c>
@@ -1101,7 +1101,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
         <v>57</v>
       </c>
@@ -1109,7 +1109,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
         <v>96</v>
       </c>
@@ -1117,7 +1117,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
         <v>60</v>
       </c>
@@ -1125,7 +1125,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
         <v>86</v>
       </c>
@@ -1133,7 +1133,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
         <v>29</v>
       </c>
@@ -1141,7 +1141,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
         <v>64</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
         <v>54</v>
       </c>
@@ -1157,7 +1157,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
         <v>69</v>
       </c>
@@ -1165,7 +1165,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
         <v>72</v>
       </c>
@@ -1173,7 +1173,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
         <v>73</v>
       </c>
@@ -1181,7 +1181,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
         <v>75</v>
       </c>
@@ -1189,7 +1189,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="36" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
         <v>79</v>
       </c>
@@ -1197,7 +1197,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="37" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
         <v>81</v>
       </c>
@@ -1205,7 +1205,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="38" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
         <v>83</v>
       </c>
@@ -1213,7 +1213,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="39" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C39" t="s">
         <v>45</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="40" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C40" t="s">
         <v>46</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="41" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C41" t="s">
         <v>49</v>
       </c>
@@ -1237,7 +1237,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="42" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C42" t="s">
         <v>50</v>
       </c>
@@ -1245,7 +1245,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="43" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C43" t="s">
         <v>53</v>
       </c>
@@ -1253,7 +1253,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="44" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
         <v>54</v>
       </c>
@@ -1261,7 +1261,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="45" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C45" t="s">
         <v>88</v>
       </c>
@@ -1269,7 +1269,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="46" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
         <v>90</v>
       </c>
@@ -1277,7 +1277,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="47" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C47" t="s">
         <v>35</v>
       </c>
@@ -1285,7 +1285,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="48" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C48" t="s">
         <v>95</v>
       </c>
@@ -1293,7 +1293,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="49" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C49" t="s">
         <v>98</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="50" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
         <v>100</v>
       </c>
@@ -1309,7 +1309,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="51" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C51" t="s">
         <v>102</v>
       </c>
@@ -1317,7 +1317,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="52" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C52" t="s">
         <v>104</v>
       </c>
@@ -1325,7 +1325,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="53" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C53" t="s">
         <v>100</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="54" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C54" t="s">
         <v>107</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="55" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C55" t="s">
         <v>109</v>
       </c>
@@ -1349,7 +1349,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="56" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C56" t="s">
         <v>111</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="57" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C57" t="s">
         <v>113</v>
       </c>
@@ -1365,7 +1365,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="58" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C58" t="s">
         <v>116</v>
       </c>
@@ -1373,7 +1373,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="59" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C59" t="s">
         <v>117</v>
       </c>
@@ -1381,7 +1381,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="60" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C60" t="s">
         <v>119</v>
       </c>
